--- a/SE2223_60157_60201_60226_60479_60749/Phase_2/Sprint2/SprintBacklog.xlsx
+++ b/SE2223_60157_60201_60226_60479_60749/Phase_2/Sprint2/SprintBacklog.xlsx
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -205,6 +205,9 @@
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,11 +690,11 @@
         <v>7</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="G18" s="5" t="s">
         <v>9</v>
       </c>
